--- a/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H2">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>892.3433108770341</v>
+        <v>1145.078505905402</v>
       </c>
       <c r="R2">
-        <v>892.3433108770341</v>
+        <v>10305.70655314862</v>
       </c>
       <c r="S2">
-        <v>0.2505174809947507</v>
+        <v>0.2846487729196698</v>
       </c>
       <c r="T2">
-        <v>0.2505174809947507</v>
+        <v>0.2846487729196698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H3">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>133.5603023289569</v>
+        <v>170.676350886368</v>
       </c>
       <c r="R3">
-        <v>133.5603023289569</v>
+        <v>1536.087157977312</v>
       </c>
       <c r="S3">
-        <v>0.03749587192788217</v>
+        <v>0.04242749610237222</v>
       </c>
       <c r="T3">
-        <v>0.03749587192788217</v>
+        <v>0.04242749610237222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H4">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>433.4578453034639</v>
+        <v>534.3720862232279</v>
       </c>
       <c r="R4">
-        <v>433.4578453034639</v>
+        <v>4809.348776009051</v>
       </c>
       <c r="S4">
-        <v>0.1216894509088776</v>
+        <v>0.132836620233034</v>
       </c>
       <c r="T4">
-        <v>0.1216894509088776</v>
+        <v>0.132836620233034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H5">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>863.6605951810117</v>
+        <v>900.8856905960456</v>
       </c>
       <c r="R5">
-        <v>863.6605951810117</v>
+        <v>8107.97121536441</v>
       </c>
       <c r="S5">
-        <v>0.2424650626074891</v>
+        <v>0.2239462229415374</v>
       </c>
       <c r="T5">
-        <v>0.2424650626074891</v>
+        <v>0.2239462229415374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H6">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>129.2672548736999</v>
+        <v>134.2789000437156</v>
       </c>
       <c r="R6">
-        <v>129.2672548736999</v>
+        <v>1208.51010039344</v>
       </c>
       <c r="S6">
-        <v>0.03629063687857712</v>
+        <v>0.03337965382227189</v>
       </c>
       <c r="T6">
-        <v>0.03629063687857712</v>
+        <v>0.03337965382227188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H7">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>419.5251492306596</v>
+        <v>420.4149876621933</v>
       </c>
       <c r="R7">
-        <v>419.5251492306596</v>
+        <v>3783.73488895974</v>
       </c>
       <c r="S7">
-        <v>0.1177779698890962</v>
+        <v>0.1045086513613834</v>
       </c>
       <c r="T7">
-        <v>0.1177779698890962</v>
+        <v>0.1045086513613834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H8">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>422.0219764399627</v>
+        <v>443.8083944778861</v>
       </c>
       <c r="R8">
-        <v>422.0219764399627</v>
+        <v>3994.275550300974</v>
       </c>
       <c r="S8">
-        <v>0.1184789320135716</v>
+        <v>0.1103238898015045</v>
       </c>
       <c r="T8">
-        <v>0.1184789320135716</v>
+        <v>0.1103238898015045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H9">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>63.16557996875324</v>
+        <v>66.15057122422401</v>
       </c>
       <c r="R9">
-        <v>63.16557996875324</v>
+        <v>595.3551410180161</v>
       </c>
       <c r="S9">
-        <v>0.0177331771151979</v>
+        <v>0.01644400696528851</v>
       </c>
       <c r="T9">
-        <v>0.0177331771151979</v>
+        <v>0.0164440069652885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H10">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>204.998159731354</v>
+        <v>207.111404517204</v>
       </c>
       <c r="R10">
-        <v>204.998159731354</v>
+        <v>1864.002640654836</v>
       </c>
       <c r="S10">
-        <v>0.05755141766455758</v>
+        <v>0.05148468585293822</v>
       </c>
       <c r="T10">
-        <v>0.05755141766455758</v>
+        <v>0.05148468585293822</v>
       </c>
     </row>
   </sheetData>
